--- a/data/2014_BPS_Reporting.xlsx
+++ b/data/2014_BPS_Reporting.xlsx
@@ -1653,67 +1653,25 @@
     <xf numFmtId="3" fontId="24" fillId="20" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" xfId="40" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="21" fillId="20" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" xfId="40" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="15" fillId="20" borderId="0" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="17" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="26" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="20" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="20" borderId="0" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="24" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1730,6 +1688,48 @@
     </xf>
     <xf numFmtId="165" fontId="17" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" xfId="40" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" xfId="40" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="24" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="25" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="25" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="26" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,15 +2112,15 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
       <c r="I1" s="33"/>
       <c r="J1" s="29"/>
       <c r="K1" s="25"/>
@@ -2193,10 +2193,10 @@
       <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="40"/>
@@ -2244,7 +2244,7 @@
       <c r="A6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="59" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="45" t="s">
@@ -2256,82 +2256,82 @@
       <c r="E6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="64" t="s">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="66"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="21"/>
       <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="50" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="50" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="50" t="s">
+      <c r="M7" s="56"/>
+      <c r="N7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="54" t="s">
+      <c r="O7" s="56"/>
+      <c r="P7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="56" t="s">
+      <c r="R7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="58" t="s">
+      <c r="S7" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="27" t="s">
         <v>29</v>
       </c>
@@ -2350,11 +2350,11 @@
       <c r="O8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="44"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="58"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6660,14 +6660,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C6:C8"/>
@@ -6681,6 +6673,14 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:S8"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
